--- a/NformTester/NformTester/Keywordscripts/600.10.30.140_VerifyUserIsAbleToAddDevicesFromAFlatFile.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.140_VerifyUserIsAbleToAddDevicesFromAFlatFile.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7445" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7447" uniqueCount="839">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3684,14 +3684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3723,17 +3715,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Liebert Alber"</t>
   </si>
   <si>
     <t>$SNMP_device_1$</t>
-  </si>
-  <si>
-    <t>$SNMP_GXT_1_NAME$</t>
   </si>
   <si>
     <t>"C:\Nform\user\export\6001030140_Device.csv"</t>
@@ -3774,6 +3759,19 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_1$</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -3932,7 +3930,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3943,8 +3941,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3989,10 +3990,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4722,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4886,7 +4892,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4911,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4949,16 +4955,16 @@
         <v>792</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>793</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>794</v>
@@ -4988,16 +4994,16 @@
         <v>792</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>793</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>794</v>
@@ -5122,10 +5128,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>578</v>
@@ -5134,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -5153,16 +5159,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -5194,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5360,10 +5366,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>578</v>
@@ -5372,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -5412,6 +5418,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>838</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>
@@ -5547,7 +5559,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -5693,7 +5705,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>602</v>
@@ -5736,7 +5748,7 @@
         <v>59</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -5763,7 +5775,7 @@
         <v>59</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5790,7 +5802,7 @@
         <v>56</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5814,7 +5826,7 @@
         <v>619</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -5842,13 +5854,13 @@
         <v>7</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>812</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -5870,7 +5882,7 @@
         <v>99</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -5898,7 +5910,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -5922,7 +5934,7 @@
         <v>374</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -5938,10 +5950,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F43" s="5">
         <v>2</v>
@@ -5970,7 +5982,7 @@
         <v>375</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -5992,7 +6004,7 @@
         <v>602</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>2</v>
@@ -6011,10 +6023,10 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F46" s="5">
         <v>40</v>
@@ -6084,7 +6096,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="5"/>
@@ -6115,7 +6127,7 @@
         <v>59</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -6142,7 +6154,7 @@
         <v>59</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -6157,7 +6169,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="5"/>
@@ -6263,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6453,7 +6465,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="5"/>
@@ -6560,10 +6572,10 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>578</v>
@@ -6572,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
